--- a/1_ore_dispensing/data/新增配方_中文.xlsx
+++ b/1_ore_dispensing/data/新增配方_中文.xlsx
@@ -17,17 +17,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>名称</t>
   </si>
   <si>
+    <t>必选</t>
+  </si>
+  <si>
+    <t>清库</t>
+  </si>
+  <si>
+    <t>批次号</t>
+  </si>
+  <si>
     <t>库存/吨</t>
   </si>
   <si>
-    <t>批次号</t>
-  </si>
-  <si>
     <t>Cu</t>
   </si>
   <si>
@@ -76,55 +82,91 @@
     <t>Au(t/g)</t>
   </si>
   <si>
-    <t>必选</t>
-  </si>
-  <si>
-    <t>清库</t>
-  </si>
-  <si>
     <t>演算比例</t>
   </si>
   <si>
     <t>水星轮水星轮</t>
   </si>
   <si>
+    <t>CU10001</t>
+  </si>
+  <si>
     <t>莱科塔</t>
   </si>
   <si>
+    <t>CU10002</t>
+  </si>
+  <si>
     <t>古北</t>
   </si>
   <si>
+    <t>CU10003</t>
+  </si>
+  <si>
     <t>马尼拉精神</t>
   </si>
   <si>
+    <t>CU10004</t>
+  </si>
+  <si>
     <t>慧金桥292柜</t>
   </si>
   <si>
+    <t>CU10005</t>
+  </si>
+  <si>
     <t>慧金桥87柜</t>
   </si>
   <si>
+    <t>CU10006</t>
+  </si>
+  <si>
     <t>苏察布64柜</t>
   </si>
   <si>
+    <t>CU10007</t>
+  </si>
+  <si>
     <t>苏察布73柜</t>
   </si>
   <si>
+    <t>CU10008</t>
+  </si>
+  <si>
     <t>苏察布52柜</t>
   </si>
   <si>
+    <t>CU10009</t>
+  </si>
+  <si>
     <t>方舟</t>
   </si>
   <si>
+    <t>CU10010</t>
+  </si>
+  <si>
     <t>马尼拉精神37柜</t>
   </si>
   <si>
+    <t>CU10011</t>
+  </si>
+  <si>
     <t>和盛</t>
   </si>
   <si>
+    <t>CU10012</t>
+  </si>
+  <si>
     <t>江门商人</t>
   </si>
   <si>
+    <t>CU10013</t>
+  </si>
+  <si>
     <t>渣精矿烟灰</t>
+  </si>
+  <si>
+    <t>CU10014</t>
   </si>
 </sst>
 </file>
@@ -132,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -145,15 +187,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,6 +208,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -174,6 +236,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -181,22 +289,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +306,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -219,59 +321,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -285,17 +335,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,121 +352,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,6 +514,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -443,54 +533,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,24 +555,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -546,28 +570,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,160 +609,180 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,17 +1115,17 @@
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="15.2909090909091"/>
-    <col min="2" max="2" width="12.9090909090909"/>
-    <col min="3" max="3" width="12.4909090909091"/>
-    <col min="4" max="19" width="8.86363636363636"/>
-    <col min="20" max="20" width="21.6090909090909"/>
-    <col min="21" max="21" width="22.5909090909091"/>
+    <col min="2" max="2" width="7.45454545454545" customWidth="1"/>
+    <col min="3" max="3" width="6.81818181818182" customWidth="1"/>
+    <col min="4" max="4" width="12.4909090909091"/>
+    <col min="5" max="5" width="12.9090909090909"/>
+    <col min="6" max="21" width="8.86363636363636"/>
     <col min="22" max="22" width="39.5818181818182"/>
     <col min="23" max="1025" width="8.86363636363636"/>
   </cols>
@@ -1092,16 +1134,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1140,16 +1182,16 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="2" t="s">
@@ -1161,49 +1203,49 @@
         <v>22</v>
       </c>
       <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1">
         <v>15000</v>
       </c>
-      <c r="C2" s="1">
-        <v>10001</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="F2" s="1">
         <v>24.78</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="1">
         <v>25.78</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="1">
         <v>32.45</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>6.38</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
         <v>0.18</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
         <v>0.14</v>
       </c>
-      <c r="J2" s="1">
+      <c r="L2" s="1">
         <v>0.26</v>
       </c>
-      <c r="K2" s="1">
+      <c r="M2" s="1">
         <v>0.05</v>
       </c>
-      <c r="L2" s="1">
+      <c r="N2" s="1">
         <v>0.21</v>
       </c>
-      <c r="M2" s="1">
+      <c r="O2" s="1">
         <v>1.92</v>
       </c>
-      <c r="N2" s="1">
+      <c r="P2" s="1">
         <v>9.36</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
       </c>
       <c r="Q2" s="1">
         <v>0</v>
@@ -1226,53 +1268,53 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
         <v>6000</v>
       </c>
-      <c r="C3" s="1">
-        <v>10002</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="F3" s="1">
         <v>24.01</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <v>31.02</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H3" s="1">
         <v>33.85</v>
       </c>
-      <c r="G3" s="1">
+      <c r="I3" s="1">
         <v>3.1</v>
       </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
         <v>0.09</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="1">
         <v>0.16</v>
       </c>
-      <c r="J3" s="1">
+      <c r="L3" s="1">
         <v>0.35</v>
       </c>
-      <c r="K3" s="1">
+      <c r="M3" s="1">
         <v>0.12</v>
       </c>
-      <c r="L3" s="1">
+      <c r="N3" s="1">
         <v>0.31</v>
       </c>
-      <c r="M3" s="1">
+      <c r="O3" s="1">
         <v>1.8</v>
       </c>
-      <c r="N3" s="1">
+      <c r="P3" s="1">
         <v>8.5</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
       <c r="Q3" s="1">
         <v>0</v>
       </c>
@@ -1280,13 +1322,13 @@
         <v>0</v>
       </c>
       <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
         <v>1</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0</v>
       </c>
       <c r="V3" s="1">
         <v>0</v>
@@ -1294,53 +1336,53 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1">
         <v>6000</v>
       </c>
-      <c r="C4" s="1">
-        <v>10007</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="F4" s="1">
         <v>27.78</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>22.78</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <v>26.45</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>8.38</v>
       </c>
-      <c r="H4" s="1">
+      <c r="J4" s="1">
         <v>1.18</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>0.14</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <v>1.2</v>
       </c>
-      <c r="K4" s="1">
+      <c r="M4" s="1">
         <v>1.05</v>
       </c>
-      <c r="L4" s="1">
+      <c r="N4" s="1">
         <v>1.21</v>
       </c>
-      <c r="M4" s="1">
+      <c r="O4" s="1">
         <v>1.92</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="1">
         <v>8.3</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
       <c r="Q4" s="1">
         <v>0</v>
       </c>
@@ -1348,13 +1390,13 @@
         <v>0</v>
       </c>
       <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
         <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1">
-        <v>0</v>
       </c>
       <c r="V4" s="1">
         <v>0</v>
@@ -1362,53 +1404,53 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:22">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1">
         <v>2000</v>
       </c>
-      <c r="C5" s="1">
-        <v>10006</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="F5" s="1">
         <v>28.78</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>21.78</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <v>29.45</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>8.38</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>0.18</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>0.14</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>0.2</v>
       </c>
-      <c r="K5" s="1">
+      <c r="M5" s="1">
         <v>0.05</v>
       </c>
-      <c r="L5" s="1">
+      <c r="N5" s="1">
         <v>0.21</v>
       </c>
-      <c r="M5" s="1">
+      <c r="O5" s="1">
         <v>1.92</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" s="1">
         <v>9.33</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
       <c r="Q5" s="1">
         <v>0</v>
       </c>
@@ -1416,13 +1458,13 @@
         <v>0</v>
       </c>
       <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
         <v>1</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0</v>
       </c>
       <c r="V5" s="1">
         <v>0</v>
@@ -1430,53 +1472,53 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1">
         <v>1500</v>
       </c>
-      <c r="C6" s="1">
-        <v>10009</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="F6" s="1">
         <v>19.71</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
         <v>26.64</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>32.12</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>3.3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <v>0.29</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <v>0.25</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>4.46</v>
       </c>
-      <c r="K6" s="1">
+      <c r="M6" s="1">
         <v>1.43</v>
       </c>
-      <c r="L6" s="1">
+      <c r="N6" s="1">
         <v>0.91</v>
       </c>
-      <c r="M6" s="1">
+      <c r="O6" s="1">
         <v>1.54</v>
       </c>
-      <c r="N6" s="1">
+      <c r="P6" s="1">
         <v>6.94</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
       <c r="Q6" s="1">
         <v>0</v>
       </c>
@@ -1484,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
         <v>1</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0</v>
       </c>
       <c r="V6" s="1">
         <v>0</v>
@@ -1498,53 +1540,53 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1">
         <v>1500</v>
       </c>
-      <c r="C7" s="1">
-        <v>10010</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="F7" s="1">
         <v>20.79</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <v>26.19</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <v>33.98</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <v>2.76</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
         <v>0.18</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1">
         <v>0.0001</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <v>0.11</v>
       </c>
-      <c r="K7" s="1">
+      <c r="M7" s="1">
         <v>0.082</v>
       </c>
-      <c r="L7" s="1">
+      <c r="N7" s="1">
         <v>0.19</v>
       </c>
-      <c r="M7" s="1">
+      <c r="O7" s="1">
         <v>1.65</v>
       </c>
-      <c r="N7" s="1">
+      <c r="P7" s="1">
         <v>4.3</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
       <c r="Q7" s="1">
         <v>0</v>
       </c>
@@ -1552,13 +1594,13 @@
         <v>0</v>
       </c>
       <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
         <v>1</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
@@ -1566,53 +1608,53 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:22">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1">
         <v>1500</v>
       </c>
-      <c r="C8" s="1">
-        <v>10011</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="F8" s="1">
         <v>19.23</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G8" s="1">
         <v>26.56</v>
       </c>
-      <c r="F8" s="1">
+      <c r="H8" s="1">
         <v>28.85</v>
       </c>
-      <c r="G8" s="1">
+      <c r="I8" s="1">
         <v>7.42</v>
       </c>
-      <c r="H8" s="1">
+      <c r="J8" s="1">
         <v>0.75</v>
       </c>
-      <c r="I8" s="1">
+      <c r="K8" s="1">
         <v>0.23</v>
       </c>
-      <c r="J8" s="1">
+      <c r="L8" s="1">
         <v>0.26</v>
       </c>
-      <c r="K8" s="1">
+      <c r="M8" s="1">
         <v>0.25</v>
       </c>
-      <c r="L8" s="1">
+      <c r="N8" s="1">
         <v>0.62</v>
       </c>
-      <c r="M8" s="1">
+      <c r="O8" s="1">
         <v>1.83</v>
       </c>
-      <c r="N8" s="1">
+      <c r="P8" s="1">
         <v>7.95</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
       <c r="Q8" s="1">
         <v>0</v>
       </c>
@@ -1620,13 +1662,13 @@
         <v>0</v>
       </c>
       <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
         <v>1</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
-        <v>0</v>
       </c>
       <c r="V8" s="1">
         <v>0</v>
@@ -1634,53 +1676,53 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1">
         <v>1500</v>
       </c>
-      <c r="C9" s="1">
-        <v>10012</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="F9" s="1">
         <v>19.59</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
         <v>27.51</v>
       </c>
-      <c r="F9" s="1">
+      <c r="H9" s="1">
         <v>30.46</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <v>6.34</v>
       </c>
-      <c r="H9" s="1">
+      <c r="J9" s="1">
         <v>0.84</v>
       </c>
-      <c r="I9" s="1">
+      <c r="K9" s="1">
         <v>0.16</v>
       </c>
-      <c r="J9" s="1">
+      <c r="L9" s="1">
         <v>0.28</v>
       </c>
-      <c r="K9" s="1">
+      <c r="M9" s="1">
         <v>0.42</v>
       </c>
-      <c r="L9" s="1">
+      <c r="N9" s="1">
         <v>0.53</v>
       </c>
-      <c r="M9" s="1">
+      <c r="O9" s="1">
         <v>1.79</v>
       </c>
-      <c r="N9" s="1">
+      <c r="P9" s="1">
         <v>6</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
       <c r="Q9" s="1">
         <v>0</v>
       </c>
@@ -1688,13 +1730,13 @@
         <v>0</v>
       </c>
       <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
         <v>1</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
-        <v>0</v>
       </c>
       <c r="V9" s="1">
         <v>0</v>
@@ -1702,53 +1744,53 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:22">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1">
         <v>1300</v>
       </c>
-      <c r="C10" s="1">
-        <v>10013</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="F10" s="1">
         <v>19.92</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
         <v>25.89</v>
       </c>
-      <c r="F10" s="1">
+      <c r="H10" s="1">
         <v>33.46</v>
       </c>
-      <c r="G10" s="1">
+      <c r="I10" s="1">
         <v>4.47</v>
       </c>
-      <c r="H10" s="1">
+      <c r="J10" s="1">
         <v>0.22</v>
       </c>
-      <c r="I10" s="1">
+      <c r="K10" s="1">
         <v>0.0033</v>
       </c>
-      <c r="J10" s="1">
+      <c r="L10" s="1">
         <v>0.063</v>
       </c>
-      <c r="K10" s="1">
+      <c r="M10" s="1">
         <v>0.08</v>
       </c>
-      <c r="L10" s="1">
+      <c r="N10" s="1">
         <v>0.18</v>
       </c>
-      <c r="M10" s="1">
+      <c r="O10" s="1">
         <v>1.87</v>
       </c>
-      <c r="N10" s="1">
+      <c r="P10" s="1">
         <v>4.35</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
       <c r="Q10" s="1">
         <v>0</v>
       </c>
@@ -1756,13 +1798,13 @@
         <v>0</v>
       </c>
       <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
         <v>1</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0</v>
-      </c>
-      <c r="U10" s="1">
-        <v>0</v>
       </c>
       <c r="V10" s="1">
         <v>0</v>
@@ -1770,53 +1812,53 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1">
         <v>1300</v>
       </c>
-      <c r="C11" s="1">
-        <v>10004</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="F11" s="1">
         <v>66.05</v>
       </c>
-      <c r="E11" s="1">
+      <c r="G11" s="1">
         <v>1.16</v>
       </c>
-      <c r="F11" s="1">
+      <c r="H11" s="1">
         <v>13.92</v>
       </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
         <v>6.78</v>
       </c>
-      <c r="H11" s="1">
+      <c r="J11" s="1">
         <v>1.58</v>
       </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
         <v>0.02</v>
       </c>
-      <c r="K11" s="1">
+      <c r="M11" s="1">
         <v>0.01</v>
       </c>
-      <c r="L11" s="1">
+      <c r="N11" s="1">
         <v>1.83</v>
       </c>
-      <c r="M11" s="1">
+      <c r="O11" s="1">
         <v>1.29</v>
       </c>
-      <c r="N11" s="1">
+      <c r="P11" s="1">
         <v>9.1</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
       <c r="Q11" s="1">
         <v>0</v>
       </c>
@@ -1824,13 +1866,13 @@
         <v>0</v>
       </c>
       <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
         <v>1</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1">
-        <v>0</v>
       </c>
       <c r="V11" s="1">
         <v>0</v>
@@ -1838,53 +1880,53 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="1:22">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1">
         <v>1000</v>
       </c>
-      <c r="C12" s="1">
-        <v>10008</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="F12" s="1">
         <v>21.99</v>
       </c>
-      <c r="E12" s="1">
+      <c r="G12" s="1">
         <v>27.35</v>
       </c>
-      <c r="F12" s="1">
+      <c r="H12" s="1">
         <v>31.24</v>
       </c>
-      <c r="G12" s="1">
+      <c r="I12" s="1">
         <v>5.72</v>
       </c>
-      <c r="H12" s="1">
+      <c r="J12" s="1">
         <v>0.67</v>
       </c>
-      <c r="I12" s="1">
+      <c r="K12" s="1">
         <v>0.29</v>
       </c>
-      <c r="J12" s="1">
+      <c r="L12" s="1">
         <v>0.24</v>
       </c>
-      <c r="K12" s="1">
+      <c r="M12" s="1">
         <v>0.25</v>
       </c>
-      <c r="L12" s="1">
+      <c r="N12" s="1">
         <v>0.44</v>
       </c>
-      <c r="M12" s="1">
+      <c r="O12" s="1">
         <v>1.64</v>
       </c>
-      <c r="N12" s="1">
+      <c r="P12" s="1">
         <v>7.3</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
       <c r="Q12" s="1">
         <v>0</v>
       </c>
@@ -1892,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
         <v>1</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1">
-        <v>0</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
@@ -1906,53 +1948,53 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="1:22">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1">
         <v>500</v>
       </c>
-      <c r="C13" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="F13" s="1">
         <v>22.99</v>
       </c>
-      <c r="E13" s="1">
+      <c r="G13" s="1">
         <v>29.6</v>
       </c>
-      <c r="F13" s="1">
+      <c r="H13" s="1">
         <v>27.59</v>
       </c>
-      <c r="G13" s="1">
+      <c r="I13" s="1">
         <v>5.1</v>
       </c>
-      <c r="H13" s="1">
+      <c r="J13" s="1">
         <v>0.62</v>
       </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
         <v>0.1</v>
       </c>
-      <c r="K13" s="1">
+      <c r="M13" s="1">
         <v>0.05</v>
       </c>
-      <c r="L13" s="1">
+      <c r="N13" s="1">
         <v>0.45</v>
       </c>
-      <c r="M13" s="1">
+      <c r="O13" s="1">
         <v>2.02</v>
       </c>
-      <c r="N13" s="1">
+      <c r="P13" s="1">
         <v>2.25</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
       <c r="Q13" s="1">
         <v>0</v>
       </c>
@@ -1960,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
         <v>1</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1">
-        <v>0</v>
       </c>
       <c r="V13" s="1">
         <v>0</v>
@@ -1974,53 +2016,53 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="1:22">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="1">
         <v>300</v>
       </c>
-      <c r="C14" s="1">
-        <v>10005</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="F14" s="1">
         <v>21.08</v>
       </c>
-      <c r="E14" s="1">
+      <c r="G14" s="1">
         <v>30.19</v>
       </c>
-      <c r="F14" s="1">
+      <c r="H14" s="1">
         <v>10.07</v>
       </c>
-      <c r="G14" s="1">
+      <c r="I14" s="1">
         <v>9.09</v>
       </c>
-      <c r="H14" s="1">
+      <c r="J14" s="1">
         <v>1.1</v>
       </c>
-      <c r="I14" s="1">
+      <c r="K14" s="1">
         <v>1.92</v>
       </c>
-      <c r="J14" s="1">
+      <c r="L14" s="1">
         <v>1.11</v>
       </c>
-      <c r="K14" s="1">
+      <c r="M14" s="1">
         <v>1.56</v>
       </c>
-      <c r="L14" s="1">
+      <c r="N14" s="1">
         <v>0.83</v>
       </c>
-      <c r="M14" s="1">
+      <c r="O14" s="1">
         <v>2.07</v>
       </c>
-      <c r="N14" s="1">
+      <c r="P14" s="1">
         <v>8.4</v>
       </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
       <c r="Q14" s="1">
         <v>0</v>
       </c>
@@ -2028,13 +2070,13 @@
         <v>0</v>
       </c>
       <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
         <v>1</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0</v>
-      </c>
-      <c r="U14" s="1">
-        <v>0</v>
       </c>
       <c r="V14" s="1">
         <v>0</v>
@@ -2042,53 +2084,53 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="1:22">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="1">
         <v>2000</v>
       </c>
-      <c r="C15" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="F15" s="1">
         <v>21.68</v>
       </c>
-      <c r="E15" s="1">
+      <c r="G15" s="1">
         <v>30.19</v>
       </c>
-      <c r="F15" s="1">
+      <c r="H15" s="1">
         <v>10.07</v>
       </c>
-      <c r="G15" s="1">
+      <c r="I15" s="1">
         <v>9.09</v>
       </c>
-      <c r="H15" s="1">
+      <c r="J15" s="1">
         <v>1.1</v>
       </c>
-      <c r="I15" s="1">
+      <c r="K15" s="1">
         <v>1.92</v>
       </c>
-      <c r="J15" s="1">
+      <c r="L15" s="1">
         <v>1.11</v>
       </c>
-      <c r="K15" s="1">
+      <c r="M15" s="1">
         <v>1.56</v>
       </c>
-      <c r="L15" s="1">
+      <c r="N15" s="1">
         <v>0.83</v>
       </c>
-      <c r="M15" s="1">
+      <c r="O15" s="1">
         <v>2.07</v>
       </c>
-      <c r="N15" s="1">
+      <c r="P15" s="1">
         <v>8.4</v>
       </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0</v>
-      </c>
       <c r="Q15" s="1">
         <v>0</v>
       </c>
@@ -2096,20 +2138,20 @@
         <v>0</v>
       </c>
       <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
         <v>1</v>
-      </c>
-      <c r="T15" s="1">
-        <v>1</v>
-      </c>
-      <c r="U15" s="1">
-        <v>0</v>
       </c>
       <c r="V15" s="1">
         <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -2129,7 +2171,7 @@
     <col min="1" max="1025" width="8.86363636363636"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -2149,7 +2191,7 @@
     <col min="1" max="1025" width="8.86363636363636"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>

--- a/1_ore_dispensing/data/新增配方_中文.xlsx
+++ b/1_ore_dispensing/data/新增配方_中文.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="17910" windowHeight="8370" tabRatio="993"/>
+    <workbookView windowWidth="27720" windowHeight="13365" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,10 +76,10 @@
     <t>Ni</t>
   </si>
   <si>
-    <t>Ag(t/g)</t>
-  </si>
-  <si>
-    <t>Au(t/g)</t>
+    <t>Ag(g/t)</t>
+  </si>
+  <si>
+    <t>Au(g/t)</t>
   </si>
   <si>
     <t>演算比例</t>
@@ -174,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -195,13 +195,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -213,8 +206,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,29 +223,6 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -261,21 +238,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,24 +259,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,11 +275,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,6 +304,44 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -352,187 +352,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,6 +579,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -589,6 +600,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -611,38 +637,12 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -651,135 +651,135 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1115,19 +1115,19 @@
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D15"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15.2909090909091"/>
-    <col min="2" max="2" width="7.45454545454545" customWidth="1"/>
-    <col min="3" max="3" width="6.81818181818182" customWidth="1"/>
-    <col min="4" max="4" width="12.4909090909091"/>
-    <col min="5" max="5" width="12.9090909090909"/>
-    <col min="6" max="21" width="8.86363636363636"/>
-    <col min="22" max="22" width="39.5818181818182"/>
-    <col min="23" max="1025" width="8.86363636363636"/>
+    <col min="1" max="1" width="15.2916666666667"/>
+    <col min="2" max="2" width="7.45833333333333" customWidth="1"/>
+    <col min="3" max="3" width="6.81666666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.4916666666667"/>
+    <col min="5" max="5" width="12.9083333333333"/>
+    <col min="6" max="21" width="8.86666666666667"/>
+    <col min="22" max="22" width="39.5833333333333"/>
+    <col min="23" max="1025" width="8.86666666666667"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
@@ -2166,9 +2166,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1025" width="8.86363636363636"/>
+    <col min="1" max="1025" width="8.86666666666667"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
@@ -2186,9 +2186,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1025" width="8.86363636363636"/>
+    <col min="1" max="1025" width="8.86666666666667"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
